--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_6_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_6_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02112377167026403</v>
+        <v>0.1560865643779764</v>
       </c>
       <c r="C2">
-        <v>0.355951242063713</v>
+        <v>0.3515450347245845</v>
       </c>
       <c r="D2">
-        <v>0.240497585199936</v>
+        <v>0.2150214299408537</v>
       </c>
       <c r="E2">
-        <v>0.4904055313716761</v>
+        <v>0.4637040326985023</v>
       </c>
       <c r="F2">
-        <v>0.4965271859374498</v>
+        <v>0.446457955381491</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03222379617982962</v>
+        <v>0.03563623385673412</v>
       </c>
       <c r="C3">
-        <v>0.3586636374752512</v>
+        <v>0.3763841266634617</v>
       </c>
       <c r="D3">
-        <v>0.2359498018512402</v>
+        <v>0.258718923892501</v>
       </c>
       <c r="E3">
-        <v>0.4857466436849978</v>
+        <v>0.5086442016699895</v>
       </c>
       <c r="F3">
-        <v>0.4913621335410098</v>
+        <v>0.5193346301731255</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03138226039402242</v>
+        <v>0.1674435058222006</v>
       </c>
       <c r="C4">
-        <v>0.3466909648505281</v>
+        <v>0.325651010243966</v>
       </c>
       <c r="D4">
-        <v>0.2295997180943285</v>
+        <v>0.1893439557694782</v>
       </c>
       <c r="E4">
-        <v>0.4791656478654626</v>
+        <v>0.4351367092874125</v>
       </c>
       <c r="F4">
-        <v>0.4849192977265996</v>
+        <v>0.4115482469089393</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06301903249585719</v>
+        <v>0.09420853156004859</v>
       </c>
       <c r="C5">
-        <v>0.3190794115284116</v>
+        <v>0.3793173975961993</v>
       </c>
       <c r="D5">
-        <v>0.1761690983220883</v>
+        <v>0.1861955740678007</v>
       </c>
       <c r="E5">
-        <v>0.4197250270380459</v>
+        <v>0.4315038517415583</v>
       </c>
       <c r="F5">
-        <v>0.42102534139492</v>
+        <v>0.4320335350642416</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05667429419941598</v>
+        <v>0.1376554976156691</v>
       </c>
       <c r="C6">
-        <v>0.3258677132926549</v>
+        <v>0.3070384954770793</v>
       </c>
       <c r="D6">
-        <v>0.180645232404033</v>
+        <v>0.1917667010867467</v>
       </c>
       <c r="E6">
-        <v>0.4250238021617531</v>
+        <v>0.4379117503410324</v>
       </c>
       <c r="F6">
-        <v>0.4275628867640783</v>
+        <v>0.4271049595302239</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06031016754934995</v>
+        <v>0.08704673532814769</v>
       </c>
       <c r="C7">
-        <v>0.3031850884167857</v>
+        <v>0.3331907123056521</v>
       </c>
       <c r="D7">
-        <v>0.1459350284066285</v>
+        <v>0.1661864209314917</v>
       </c>
       <c r="E7">
-        <v>0.3820144348144825</v>
+        <v>0.4076596876458251</v>
       </c>
       <c r="F7">
-        <v>0.3830724678175433</v>
+        <v>0.4098039102391214</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0392950771788617</v>
+        <v>0.1098414975704748</v>
       </c>
       <c r="C8">
-        <v>0.3150889887329412</v>
+        <v>0.3502453509676531</v>
       </c>
       <c r="D8">
-        <v>0.1458966735949859</v>
+        <v>0.1720447973870636</v>
       </c>
       <c r="E8">
-        <v>0.3819642307795141</v>
+        <v>0.4147828315963229</v>
       </c>
       <c r="F8">
-        <v>0.3860169750631391</v>
+        <v>0.4122843320736888</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
